--- a/data/ICPC intited teams.xlsx
+++ b/data/ICPC intited teams.xlsx
@@ -22,7 +22,7 @@
     <t>teamName</t>
   </si>
   <si>
-    <t>institution</t>
+    <t>collegeName</t>
   </si>
   <si>
     <t>icpcpr250029</t>
